--- a/data/trans_orig/P36B06_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DD51EE-49BB-45F7-B0A2-871A42988283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EE849A-826F-43B5-B121-FC45A290277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34136A2D-6D8B-4641-84E8-4CE639E02601}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC790E65-9EC5-46A2-9DF0-5077CD9AB2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,49 +251,55 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>19,79%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>80,21%</t>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +308,55 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,49 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>13,7%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>86,3%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>56,26%</t>
   </si>
   <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>52,67%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>43,63%</t>
   </si>
   <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
+    <t>49,41%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06627319-B7C5-47F2-BC02-752ACEB1CD88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1651713-5574-4155-A0C4-D5D6F568F254}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,10 +1582,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -1594,13 +1594,13 @@
         <v>64664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -1609,13 +1609,13 @@
         <v>110722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>274532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -1645,13 +1645,13 @@
         <v>363463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>773</v>
@@ -1660,13 +1660,13 @@
         <v>637995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>39759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -1749,13 +1749,13 @@
         <v>31570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -1764,13 +1764,13 @@
         <v>71329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>155438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -1800,13 +1800,13 @@
         <v>199474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
@@ -1815,13 +1815,13 @@
         <v>354913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>12762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -1904,13 +1904,13 @@
         <v>18973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -1919,13 +1919,13 @@
         <v>31735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>264049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -1955,13 +1955,13 @@
         <v>256649</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>783</v>
@@ -1970,13 +1970,13 @@
         <v>520699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>105258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2059,13 +2059,13 @@
         <v>227191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -2074,13 +2074,13 @@
         <v>332449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,10 +2095,10 @@
         <v>516747</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>136</v>
